--- a/data/trans_bre/P16A12-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A12-Edad-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para la diabetes en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P16A12-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A12-Edad-trans_bre.xlsx
@@ -662,13 +662,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.9916586319401023</v>
+        <v>-1.372094914285244</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.6034947662988207</v>
+        <v>-0.564519482810576</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.109770463428394</v>
+        <v>-1.108871318024222</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.434630775172458</v>
+        <v>1.469284582876203</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.557439945409431</v>
+        <v>1.763925987775508</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
@@ -746,20 +746,20 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.5960332607095707</v>
+        <v>-0.6718342152525428</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.543864970949151</v>
+        <v>-1.777238709430597</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.5160861909435799</v>
+        <v>-0.6775304243261455</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.789806712179748</v>
+        <v>-1.666664824771714</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.7121430244174275</v>
+        <v>-0.7972662936464437</v>
       </c>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="inlineStr"/>
@@ -772,20 +772,20 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6540346318720155</v>
+        <v>0.646710120572133</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.200278120699104</v>
+        <v>0.9919372567397601</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9610921938858908</v>
+        <v>0.8199731621829878</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.303701532359356</v>
+        <v>0.3078091336112641</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>1.789533015969687</v>
+        <v>1.323583143757834</v>
       </c>
       <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="inlineStr"/>
@@ -834,28 +834,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.225903411362787</v>
+        <v>-2.19138635173901</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1658275795087835</v>
+        <v>0.1124306837850742</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.374993477795412</v>
+        <v>-1.349212818462773</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.424032370288735</v>
+        <v>-2.429884351632081</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.8549770216531167</v>
+        <v>-0.8385888898215645</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.03332314124466063</v>
+        <v>-0.2113801866368792</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.6923919621547224</v>
+        <v>-0.6966431025950741</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.78337328135388</v>
+        <v>-0.8053853018209542</v>
       </c>
     </row>
     <row r="12">
@@ -866,28 +866,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1988791851955144</v>
+        <v>0.2600031005497265</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.421769460285705</v>
+        <v>2.397387492862892</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8472313856744162</v>
+        <v>0.9888873625428458</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2238058059849</v>
+        <v>0.3426997826375018</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3139645490978626</v>
+        <v>0.431054640051071</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>12.88523968921922</v>
+        <v>11.75106542491491</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.288406719976324</v>
+        <v>1.539184302311417</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2753273750250606</v>
+        <v>0.3886396331197928</v>
       </c>
     </row>
     <row r="13">
@@ -911,7 +911,7 @@
         <v>-2.3437694721375</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-3.53089944133443</v>
+        <v>-3.530899441334428</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.2552497558083667</v>
@@ -923,7 +923,7 @@
         <v>-0.4242282187974751</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.5479918728052502</v>
+        <v>-0.5479918728052501</v>
       </c>
     </row>
     <row r="14">
@@ -934,28 +934,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.664329422204633</v>
+        <v>-3.46308316320486</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.623989523935584</v>
+        <v>-2.510139411151123</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-4.792549354360725</v>
+        <v>-5.057431762129895</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.808199301866618</v>
+        <v>-5.689279393614746</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6254276692797447</v>
+        <v>-0.6134139787487575</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5296825221308202</v>
+        <v>-0.5209505328935319</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6737419884925498</v>
+        <v>-0.7117669906737776</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7133544612514361</v>
+        <v>-0.7150806697978256</v>
       </c>
     </row>
     <row r="15">
@@ -966,28 +966,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.318836784646292</v>
+        <v>1.373162988758447</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.862406234320716</v>
+        <v>2.048348286757556</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-0.02287055000556706</v>
+        <v>-0.2634966326762621</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-1.721128104352742</v>
+        <v>-1.411426407344999</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4270673427846663</v>
+        <v>0.4568068153093834</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7116057634444574</v>
+        <v>0.7808635968370936</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0241343716040569</v>
+        <v>-0.04344136698001962</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.319024607039971</v>
+        <v>-0.2782726449151713</v>
       </c>
     </row>
     <row r="16">
@@ -1011,7 +1011,7 @@
         <v>-1.035509986062491</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-6.103525002899198</v>
+        <v>-6.103525002899195</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1680179363984098</v>
@@ -1023,7 +1023,7 @@
         <v>-0.08206199404436426</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.4764945542653861</v>
+        <v>-0.476494554265386</v>
       </c>
     </row>
     <row r="17">
@@ -1034,28 +1034,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.572256468754553</v>
+        <v>-6.596652465865903</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.896744401264793</v>
+        <v>-4.543946992001042</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.090107436507711</v>
+        <v>-5.389614141178865</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-9.282798711344343</v>
+        <v>-8.917411516228043</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4578057406160774</v>
+        <v>-0.4589238999540158</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.346386886960086</v>
+        <v>-0.327075034466887</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3478716799527718</v>
+        <v>-0.3668908755057921</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.6277765403821967</v>
+        <v>-0.6125678408355824</v>
       </c>
     </row>
     <row r="18">
@@ -1066,28 +1066,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.840012453021034</v>
+        <v>2.042035227637415</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.127003652566813</v>
+        <v>4.142686999356158</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.99285126586432</v>
+        <v>3.114642939303887</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-3.223956858184422</v>
+        <v>-2.87275098021076</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2053749412540338</v>
+        <v>0.2077879423474573</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4328373397253446</v>
+        <v>0.4463548582888988</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2876864674934001</v>
+        <v>0.3033294344099275</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.2967918090510576</v>
+        <v>-0.2781838019729007</v>
       </c>
     </row>
     <row r="19">
@@ -1134,28 +1134,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-4.364319018844774</v>
+        <v>-4.467797169783113</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-11.50859118232737</v>
+        <v>-12.2142691699958</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-12.04756886595456</v>
+        <v>-11.21936573465331</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-8.431952157444421</v>
+        <v>-8.177536911587296</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2002027005419889</v>
+        <v>-0.195533738279819</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3563113043961121</v>
+        <v>-0.372750749900034</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3971900051514713</v>
+        <v>-0.3705571558169754</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3708799258044373</v>
+        <v>-0.3684611159861507</v>
       </c>
     </row>
     <row r="21">
@@ -1166,28 +1166,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.5508145451816</v>
+        <v>7.079917586306224</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.910107663959479</v>
+        <v>1.76107145327987</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.123569405683282</v>
+        <v>1.29838164590242</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-0.18120910311856</v>
+        <v>-0.1709265636854109</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4589122471586692</v>
+        <v>0.4267952236160358</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1110340439715217</v>
+        <v>0.06939467825585618</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04930842594111763</v>
+        <v>0.05244046258695947</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.004430303730368116</v>
+        <v>-0.01034384396688177</v>
       </c>
     </row>
     <row r="22">
@@ -1234,28 +1234,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.15882640618122</v>
+        <v>-7.421308615869286</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.773112302742457</v>
+        <v>-5.61530685227721</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-14.44075519120642</v>
+        <v>-14.06019409095841</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.82241851709645</v>
+        <v>-3.635971719144402</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2904081539858229</v>
+        <v>-0.3044020968243583</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1723759700888011</v>
+        <v>-0.1697364488747886</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.3768424239185921</v>
+        <v>-0.3850738738421449</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.1208150002955346</v>
+        <v>-0.1164070364195161</v>
       </c>
     </row>
     <row r="24">
@@ -1266,28 +1266,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.437031828232847</v>
+        <v>7.459464299451886</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.502181234721425</v>
+        <v>9.493094042878919</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.008618258779288887</v>
+        <v>0.7350760045454704</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.220153919768134</v>
+        <v>6.790937122880959</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.472237945349162</v>
+        <v>0.4466759129411136</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3912076117869863</v>
+        <v>0.3919154529223822</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.008820540847751241</v>
+        <v>0.02105664409030076</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2549542414630359</v>
+        <v>0.2688958339436114</v>
       </c>
     </row>
     <row r="25">
@@ -1334,28 +1334,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.6526985893170212</v>
+        <v>-0.5814997343520362</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.1834459097895089</v>
+        <v>-0.1537993836081294</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-1.936364921036709</v>
+        <v>-1.905895089359156</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-2.342635373790185</v>
+        <v>-2.259855139272341</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1073510211757825</v>
+        <v>-0.09326028792863239</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.02255910205759654</v>
+        <v>-0.02058530903070131</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2161362580276692</v>
+        <v>-0.206684201708897</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2527195879614682</v>
+        <v>-0.245550883719179</v>
       </c>
     </row>
     <row r="27">
@@ -1366,28 +1366,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.63803353328432</v>
+        <v>1.588627785117399</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>2.422386333042539</v>
+        <v>2.494887549381024</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8514689686293101</v>
+        <v>0.7343947300803888</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-0.2513995708748614</v>
+        <v>-0.06803537130833497</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3251995681888217</v>
+        <v>0.3185870801638073</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3718973803882649</v>
+        <v>0.3857012158694349</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1114859587461387</v>
+        <v>0.09578815720499048</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.03295490845542912</v>
+        <v>-0.01667467661320104</v>
       </c>
     </row>
     <row r="28">
